--- a/FieldValuesAssign/template.xlsx
+++ b/FieldValuesAssign/template.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4977" uniqueCount="2488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4988" uniqueCount="2498">
   <si>
     <t>代码</t>
   </si>
@@ -7616,23 +7616,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PYTHON、VB、STRING其中一个默认为STRING</t>
+    <t>要显示的字段个数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>要显示与赋值的字段个数</t>
+    <t>详细配置表的表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>详细配置表</t>
+    <t>表中第i个字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第i个表名中的字段名</t>
+    <t>表中第i个字段内容赋值到GIS数据库中的一个或多个字段名,用逗号隔开</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第i个表名中的字段名赋值到GIS数据库中的一个或多个字段,用逗号隔开</t>
+    <t>示例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sheet1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>示例说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示4个字段与搜索框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本工作簿的Sheet1表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指Sheet1中的代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A,B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指GIS数据库中要素类的字段A与B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STRING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达式类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PYTHON、VB、STRING其中一个，无效时默认为STRING，为STRING时，内部使用VB，将表达式内容中的引号用两个引号替换，再在首尾各添加一个引号如123 -&gt; "123" ,"1"3 -&gt; """1""3"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8024,9 +8064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1236"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -25357,7 +25395,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -25462,62 +25502,102 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="66.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>2480</v>
       </c>
       <c r="B1" t="s">
         <v>2479</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>2487</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>2465</v>
       </c>
       <c r="B2" t="s">
-        <v>2484</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>2483</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2462</v>
       </c>
       <c r="B3" t="s">
-        <v>2485</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>2484</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2488</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>2481</v>
       </c>
       <c r="B4" t="s">
-        <v>2486</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>2485</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>2482</v>
       </c>
       <c r="B5" t="s">
-        <v>2487</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>2486</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2493</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>2477</v>
       </c>
       <c r="B6" t="s">
-        <v>2483</v>
+        <v>2497</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2495</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2496</v>
       </c>
     </row>
   </sheetData>
